--- a/Archivos/archivo_tradeview_1.xlsx
+++ b/Archivos/archivo_tradeview_1.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BMS\PycharmProjects\LAB_2_HPH\Archivos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6E7F43DE-3B87-4086-A8DA-54F1B391188E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F32B541-CD80-46F4-8377-79CB9BAC75CF}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" iterateDelta="1E-4"/>
+  <calcPr calcId="0" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -27,48 +27,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="180">
   <si>
-    <t>Order</t>
-  </si>
-  <si>
-    <t>openTime</t>
-  </si>
-  <si>
-    <t>Type</t>
-  </si>
-  <si>
-    <t>Size</t>
-  </si>
-  <si>
-    <t>Symbol</t>
-  </si>
-  <si>
-    <t>openPrice</t>
-  </si>
-  <si>
-    <t>S/L</t>
-  </si>
-  <si>
-    <t>T/P</t>
-  </si>
-  <si>
-    <t>closeTime</t>
-  </si>
-  <si>
-    <t>closePrice</t>
-  </si>
-  <si>
-    <t>Commission</t>
-  </si>
-  <si>
-    <t>Taxes</t>
-  </si>
-  <si>
-    <t>Swap</t>
-  </si>
-  <si>
-    <t>Profit</t>
-  </si>
-  <si>
     <t>2019.08.27 06:57:50</t>
   </si>
   <si>
@@ -565,6 +523,48 @@
   </si>
   <si>
     <t>2019.09.25 15:24:35</t>
+  </si>
+  <si>
+    <t>order</t>
+  </si>
+  <si>
+    <t>opentime</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>size</t>
+  </si>
+  <si>
+    <t>symbol</t>
+  </si>
+  <si>
+    <t>openprice</t>
+  </si>
+  <si>
+    <t>s/l</t>
+  </si>
+  <si>
+    <t>t/p</t>
+  </si>
+  <si>
+    <t>closetime</t>
+  </si>
+  <si>
+    <t>closeprice</t>
+  </si>
+  <si>
+    <t>commission</t>
+  </si>
+  <si>
+    <t>taxes</t>
+  </si>
+  <si>
+    <t>swap</t>
+  </si>
+  <si>
+    <t>profit</t>
   </si>
 </sst>
 </file>
@@ -940,7 +940,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N85"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -961,46 +963,46 @@
   <sheetData>
     <row r="1" spans="1:14" ht="10.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
-        <v>0</v>
+        <v>166</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>1</v>
+        <v>167</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>2</v>
+        <v>168</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>3</v>
+        <v>169</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>4</v>
+        <v>170</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>5</v>
+        <v>171</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>6</v>
+        <v>172</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>7</v>
+        <v>173</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>8</v>
+        <v>174</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>9</v>
+        <v>175</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>10</v>
+        <v>176</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>11</v>
+        <v>177</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>12</v>
+        <v>178</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>13</v>
+        <v>179</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.35">
@@ -1008,16 +1010,16 @@
         <v>24316034</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="D2" s="4">
         <v>0.04</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="F2" s="4">
         <v>1529.21</v>
@@ -1029,7 +1031,7 @@
         <v>1543</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="J2" s="4">
         <v>1533.69</v>
@@ -1052,16 +1054,16 @@
         <v>24334215</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="D3" s="4">
         <v>0.01</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="F3" s="4">
         <v>117.664</v>
@@ -1073,7 +1075,7 @@
         <v>118.7</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="J3" s="4">
         <v>117.374</v>
@@ -1096,16 +1098,16 @@
         <v>24342155</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="D4" s="4">
         <v>0.05</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="F4" s="4">
         <v>117.346</v>
@@ -1117,7 +1119,7 @@
         <v>119.7</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="J4" s="4">
         <v>117.452</v>
@@ -1140,16 +1142,16 @@
         <v>24373260</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="D5" s="4">
         <v>0.01</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="F5" s="4">
         <v>1.10791</v>
@@ -1161,7 +1163,7 @@
         <v>1.1174999999999999</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="J5" s="4">
         <v>1.1081799999999999</v>
@@ -1184,16 +1186,16 @@
         <v>24392415</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="D6" s="4">
         <v>0.01</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="F6" s="4">
         <v>1.22024</v>
@@ -1205,7 +1207,7 @@
         <v>1.2370000000000001</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="J6" s="4">
         <v>1.2199</v>
@@ -1228,16 +1230,16 @@
         <v>24392425</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="D7" s="4">
         <v>0.01</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="F7" s="4">
         <v>129.23400000000001</v>
@@ -1249,7 +1251,7 @@
         <v>132.19999999999999</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="J7" s="4">
         <v>129.21</v>
@@ -1272,16 +1274,16 @@
         <v>24392432</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="D8" s="4">
         <v>0.04</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="F8" s="4">
         <v>129.23400000000001</v>
@@ -1293,7 +1295,7 @@
         <v>132.19999999999999</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="J8" s="4">
         <v>129.80099999999999</v>
@@ -1316,16 +1318,16 @@
         <v>24392440</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="D9" s="4">
         <v>0.04</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="F9" s="4">
         <v>1.22024</v>
@@ -1337,7 +1339,7 @@
         <v>1.2370000000000001</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="J9" s="4">
         <v>1.22173</v>
@@ -1360,16 +1362,16 @@
         <v>24392449</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="D10" s="4">
         <v>0.04</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="F10" s="4">
         <v>117.664</v>
@@ -1381,7 +1383,7 @@
         <v>118.7</v>
       </c>
       <c r="I10" s="5" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="J10" s="4">
         <v>117.399</v>
@@ -1404,16 +1406,16 @@
         <v>24392456</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="D11" s="4">
         <v>0.04</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="F11" s="4">
         <v>1.10791</v>
@@ -1425,7 +1427,7 @@
         <v>1.1174999999999999</v>
       </c>
       <c r="I11" s="5" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="J11" s="4">
         <v>1.1014999999999999</v>
@@ -1448,16 +1450,16 @@
         <v>24416172</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="D12" s="4">
         <v>0.04</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="F12" s="4">
         <v>1.1054299999999999</v>
@@ -1469,7 +1471,7 @@
         <v>0</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="J12" s="4">
         <v>1.1051800000000001</v>
@@ -1492,16 +1494,16 @@
         <v>24416187</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="D13" s="4">
         <v>0.05</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="F13" s="4">
         <v>1.10545</v>
@@ -1513,7 +1515,7 @@
         <v>0</v>
       </c>
       <c r="I13" s="5" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="J13" s="4">
         <v>1.1014999999999999</v>
@@ -1536,16 +1538,16 @@
         <v>24417804</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="D14" s="4">
         <v>0.05</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="F14" s="4">
         <v>1528.76</v>
@@ -1557,7 +1559,7 @@
         <v>1555</v>
       </c>
       <c r="I14" s="5" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="J14" s="4">
         <v>1523.8</v>
@@ -1580,16 +1582,16 @@
         <v>24432348</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="D15" s="4">
         <v>0.05</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="F15" s="4">
         <v>1525.05</v>
@@ -1601,7 +1603,7 @@
         <v>1560</v>
       </c>
       <c r="I15" s="5" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="J15" s="4">
         <v>1528.61</v>
@@ -1624,16 +1626,16 @@
         <v>24464440</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="D16" s="4">
         <v>0.01</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="F16" s="4">
         <v>1.2162999999999999</v>
@@ -1645,7 +1647,7 @@
         <v>0</v>
       </c>
       <c r="I16" s="5" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="J16" s="4">
         <v>1.2159</v>
@@ -1668,16 +1670,16 @@
         <v>24464454</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="D17" s="4">
         <v>0.04</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="F17" s="4">
         <v>1.2162999999999999</v>
@@ -1689,7 +1691,7 @@
         <v>0</v>
       </c>
       <c r="I17" s="5" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="J17" s="4">
         <v>1.2079899999999999</v>
@@ -1712,16 +1714,16 @@
         <v>24471787</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="D18" s="4">
         <v>0.05</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="F18" s="4">
         <v>1.0991500000000001</v>
@@ -1733,7 +1735,7 @@
         <v>0</v>
       </c>
       <c r="I18" s="5" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="J18" s="4">
         <v>1.09399</v>
@@ -1756,16 +1758,16 @@
         <v>24518282</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="D19" s="4">
         <v>0.01</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="F19" s="4">
         <v>128.178</v>
@@ -1777,7 +1779,7 @@
         <v>0</v>
       </c>
       <c r="I19" s="5" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="J19" s="4">
         <v>128.14500000000001</v>
@@ -1800,16 +1802,16 @@
         <v>24518288</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="D20" s="4">
         <v>0.04</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="F20" s="4">
         <v>128.178</v>
@@ -1821,7 +1823,7 @@
         <v>0</v>
       </c>
       <c r="I20" s="5" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="J20" s="4">
         <v>127.8</v>
@@ -1844,16 +1846,16 @@
         <v>24518296</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="D21" s="4">
         <v>0.01</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="F21" s="4">
         <v>0.67020000000000002</v>
@@ -1865,7 +1867,7 @@
         <v>0</v>
       </c>
       <c r="I21" s="5" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="J21" s="4">
         <v>0.66991000000000001</v>
@@ -1888,16 +1890,16 @@
         <v>24518303</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="D22" s="4">
         <v>0.04</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="F22" s="4">
         <v>0.67020000000000002</v>
@@ -1909,7 +1911,7 @@
         <v>0.68300000000000005</v>
       </c>
       <c r="I22" s="5" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="J22" s="4">
         <v>0.67283999999999999</v>
@@ -1932,16 +1934,16 @@
         <v>24518320</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="D23" s="4">
         <v>0.01</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="F23" s="4">
         <v>106.372</v>
@@ -1953,7 +1955,7 @@
         <v>0</v>
       </c>
       <c r="I23" s="5" t="s">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="J23" s="4">
         <v>106.345</v>
@@ -1976,16 +1978,16 @@
         <v>24518329</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="D24" s="4">
         <v>0.04</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="F24" s="4">
         <v>106.372</v>
@@ -1997,7 +1999,7 @@
         <v>0</v>
       </c>
       <c r="I24" s="5" t="s">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="J24" s="4">
         <v>105.8</v>
@@ -2020,16 +2022,16 @@
         <v>24766404</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="D25" s="4">
         <v>0.01</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="F25" s="4">
         <v>1487.63</v>
@@ -2041,7 +2043,7 @@
         <v>0</v>
       </c>
       <c r="I25" s="5" t="s">
-        <v>61</v>
+        <v>47</v>
       </c>
       <c r="J25" s="4">
         <v>1487.05</v>
@@ -2064,16 +2066,16 @@
         <v>24766410</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="D26" s="4">
         <v>0.04</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="F26" s="4">
         <v>1487.63</v>
@@ -2085,7 +2087,7 @@
         <v>0</v>
       </c>
       <c r="I26" s="5" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="J26" s="4">
         <v>1492.74</v>
@@ -2108,16 +2110,16 @@
         <v>24778231</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="D27" s="4">
         <v>0.06</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="F27" s="4">
         <v>19.523630000000001</v>
@@ -2129,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="I27" s="5" t="s">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="J27" s="4">
         <v>19.428470000000001</v>
@@ -2152,16 +2154,16 @@
         <v>24850230</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>66</v>
+        <v>52</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="D28" s="4">
         <v>0.06</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="F28" s="4">
         <v>19.441230000000001</v>
@@ -2173,7 +2175,7 @@
         <v>0</v>
       </c>
       <c r="I28" s="5" t="s">
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="J28" s="4">
         <v>19.58155</v>
@@ -2196,16 +2198,16 @@
         <v>24853645</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>68</v>
+        <v>54</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="D29" s="4">
         <v>0.06</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="F29" s="4">
         <v>1497.97</v>
@@ -2217,7 +2219,7 @@
         <v>0</v>
       </c>
       <c r="I29" s="5" t="s">
-        <v>69</v>
+        <v>55</v>
       </c>
       <c r="J29" s="4">
         <v>1504.48</v>
@@ -2240,16 +2242,16 @@
         <v>24881355</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="D30" s="4">
         <v>0.06</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="F30" s="4">
         <v>1494.14</v>
@@ -2261,7 +2263,7 @@
         <v>0</v>
       </c>
       <c r="I30" s="5" t="s">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="J30" s="4">
         <v>1501.74</v>
@@ -2284,16 +2286,16 @@
         <v>24883777</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>72</v>
+        <v>58</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="D31" s="4">
         <v>0.06</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="F31" s="4">
         <v>1487.17</v>
@@ -2305,7 +2307,7 @@
         <v>0</v>
       </c>
       <c r="I31" s="5" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="J31" s="4">
         <v>1488.57</v>
@@ -2328,16 +2330,16 @@
         <v>24929591</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="D32" s="4">
         <v>0.06</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="F32" s="4">
         <v>1.1012200000000001</v>
@@ -2349,7 +2351,7 @@
         <v>0</v>
       </c>
       <c r="I32" s="5" t="s">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="J32" s="4">
         <v>1.1021399999999999</v>
@@ -2372,16 +2374,16 @@
         <v>25011739</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="D33" s="4">
         <v>0.06</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="F33" s="4">
         <v>1.1037300000000001</v>
@@ -2393,7 +2395,7 @@
         <v>0</v>
       </c>
       <c r="I33" s="5" t="s">
-        <v>77</v>
+        <v>63</v>
       </c>
       <c r="J33" s="4">
         <v>1.10639</v>
@@ -2416,16 +2418,16 @@
         <v>25027858</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>78</v>
+        <v>64</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="D34" s="4">
         <v>0.06</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="F34" s="4">
         <v>19.32863</v>
@@ -2437,7 +2439,7 @@
         <v>0</v>
       </c>
       <c r="I34" s="5" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="J34" s="4">
         <v>19.378139999999998</v>
@@ -2460,16 +2462,16 @@
         <v>25042946</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>80</v>
+        <v>66</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="D35" s="4">
         <v>0.06</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="F35" s="4">
         <v>1.1045100000000001</v>
@@ -2481,7 +2483,7 @@
         <v>0</v>
       </c>
       <c r="I35" s="5" t="s">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="J35" s="4">
         <v>1.1057300000000001</v>
@@ -2504,16 +2506,16 @@
         <v>25043204</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>82</v>
+        <v>68</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="D36" s="4">
         <v>0.06</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="F36" s="4">
         <v>1.1045400000000001</v>
@@ -2525,7 +2527,7 @@
         <v>0</v>
       </c>
       <c r="I36" s="5" t="s">
-        <v>83</v>
+        <v>69</v>
       </c>
       <c r="J36" s="4">
         <v>1.1057300000000001</v>
@@ -2548,16 +2550,16 @@
         <v>25188529</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="D37" s="4">
         <v>0.08</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="F37" s="4">
         <v>19.562329999999999</v>
@@ -2569,7 +2571,7 @@
         <v>19.899999999999999</v>
       </c>
       <c r="I37" s="5" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="J37" s="4">
         <v>19.578970000000002</v>
@@ -2592,16 +2594,16 @@
         <v>25188553</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>86</v>
+        <v>72</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="D38" s="4">
         <v>0.01</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="F38" s="4">
         <v>19.561029999999999</v>
@@ -2613,7 +2615,7 @@
         <v>19.899999999999999</v>
       </c>
       <c r="I38" s="5" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="J38" s="4">
         <v>19.582470000000001</v>
@@ -2636,16 +2638,16 @@
         <v>25193432</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>87</v>
+        <v>73</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="D39" s="4">
         <v>0.08</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="F39" s="4">
         <v>1.0945499999999999</v>
@@ -2657,7 +2659,7 @@
         <v>1.111</v>
       </c>
       <c r="I39" s="5" t="s">
-        <v>88</v>
+        <v>74</v>
       </c>
       <c r="J39" s="4">
         <v>1.09148</v>
@@ -2680,16 +2682,16 @@
         <v>25229583</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>89</v>
+        <v>75</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="D40" s="4">
         <v>0.09</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="F40" s="4">
         <v>7910.75</v>
@@ -2701,7 +2703,7 @@
         <v>0</v>
       </c>
       <c r="I40" s="5" t="s">
-        <v>91</v>
+        <v>77</v>
       </c>
       <c r="J40" s="4">
         <v>7986.78</v>
@@ -2724,16 +2726,16 @@
         <v>24311675</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="D41" s="4">
         <v>0.04</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="F41" s="4">
         <v>117.407</v>
@@ -2745,7 +2747,7 @@
         <v>0</v>
       </c>
       <c r="I41" s="5" t="s">
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="J41" s="4">
         <v>117.423</v>
@@ -2768,16 +2770,16 @@
         <v>24311730</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="D42" s="4">
         <v>0.04</v>
       </c>
       <c r="E42" s="4" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="F42" s="4">
         <v>117.389</v>
@@ -2789,7 +2791,7 @@
         <v>0</v>
       </c>
       <c r="I42" s="5" t="s">
-        <v>96</v>
+        <v>82</v>
       </c>
       <c r="J42" s="4">
         <v>117.41200000000001</v>
@@ -2812,16 +2814,16 @@
         <v>24311745</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>97</v>
+        <v>83</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="D43" s="4">
         <v>0.04</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="F43" s="4">
         <v>117.36799999999999</v>
@@ -2833,7 +2835,7 @@
         <v>0</v>
       </c>
       <c r="I43" s="5" t="s">
-        <v>98</v>
+        <v>84</v>
       </c>
       <c r="J43" s="4">
         <v>117.402</v>
@@ -2856,16 +2858,16 @@
         <v>24315841</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>99</v>
+        <v>85</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="D44" s="4">
         <v>0.05</v>
       </c>
       <c r="E44" s="4" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="F44" s="4">
         <v>117.343</v>
@@ -2877,7 +2879,7 @@
         <v>117.1</v>
       </c>
       <c r="I44" s="5" t="s">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="J44" s="4">
         <v>117.315</v>
@@ -2900,16 +2902,16 @@
         <v>24315970</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="D45" s="4">
         <v>0.04</v>
       </c>
       <c r="E45" s="4" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="F45" s="4">
         <v>1.11005</v>
@@ -2921,7 +2923,7 @@
         <v>1.107</v>
       </c>
       <c r="I45" s="5" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="J45" s="4">
         <v>1.1102700000000001</v>
@@ -2944,16 +2946,16 @@
         <v>24318553</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>103</v>
+        <v>89</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="D46" s="4">
         <v>0.05</v>
       </c>
       <c r="E46" s="4" t="s">
-        <v>104</v>
+        <v>90</v>
       </c>
       <c r="F46" s="4">
         <v>0.90820999999999996</v>
@@ -2965,7 +2967,7 @@
         <v>0.90300000000000002</v>
       </c>
       <c r="I46" s="5" t="s">
-        <v>105</v>
+        <v>91</v>
       </c>
       <c r="J46" s="4">
         <v>0.90559000000000001</v>
@@ -2988,16 +2990,16 @@
         <v>24325707</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>106</v>
+        <v>92</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="D47" s="4">
         <v>0.04</v>
       </c>
       <c r="E47" s="4" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="F47" s="4">
         <v>1.1106</v>
@@ -3009,7 +3011,7 @@
         <v>1.107</v>
       </c>
       <c r="I47" s="5" t="s">
-        <v>107</v>
+        <v>93</v>
       </c>
       <c r="J47" s="4">
         <v>1.11093</v>
@@ -3032,16 +3034,16 @@
         <v>24325723</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>108</v>
+        <v>94</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="D48" s="4">
         <v>0.04</v>
       </c>
       <c r="E48" s="4" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="F48" s="4">
         <v>1.1106199999999999</v>
@@ -3053,7 +3055,7 @@
         <v>1.107</v>
       </c>
       <c r="I48" s="5" t="s">
-        <v>109</v>
+        <v>95</v>
       </c>
       <c r="J48" s="4">
         <v>1.1107899999999999</v>
@@ -3076,16 +3078,16 @@
         <v>24325740</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="D49" s="4">
         <v>0.05</v>
       </c>
       <c r="E49" s="4" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="F49" s="4">
         <v>1.11049</v>
@@ -3097,7 +3099,7 @@
         <v>1.107</v>
       </c>
       <c r="I49" s="5" t="s">
-        <v>111</v>
+        <v>97</v>
       </c>
       <c r="J49" s="4">
         <v>1.1109</v>
@@ -3120,16 +3122,16 @@
         <v>24427784</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>112</v>
+        <v>98</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="D50" s="4">
         <v>0.02</v>
       </c>
       <c r="E50" s="4" t="s">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="F50" s="4">
         <v>106.495</v>
@@ -3141,7 +3143,7 @@
         <v>0</v>
       </c>
       <c r="I50" s="5" t="s">
-        <v>113</v>
+        <v>99</v>
       </c>
       <c r="J50" s="4">
         <v>106.477</v>
@@ -3164,16 +3166,16 @@
         <v>24428006</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>112</v>
+        <v>98</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="D51" s="4">
         <v>0.06</v>
       </c>
       <c r="E51" s="4" t="s">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="F51" s="4">
         <v>106.495</v>
@@ -3185,7 +3187,7 @@
         <v>0</v>
       </c>
       <c r="I51" s="5" t="s">
-        <v>114</v>
+        <v>100</v>
       </c>
       <c r="J51" s="4">
         <v>106.14</v>
@@ -3208,16 +3210,16 @@
         <v>24464433</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>115</v>
+        <v>101</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="D52" s="4">
         <v>0.01</v>
       </c>
       <c r="E52" s="4" t="s">
-        <v>116</v>
+        <v>102</v>
       </c>
       <c r="F52" s="4">
         <v>1.33202</v>
@@ -3229,7 +3231,7 @@
         <v>0</v>
       </c>
       <c r="I52" s="5" t="s">
-        <v>117</v>
+        <v>103</v>
       </c>
       <c r="J52" s="4">
         <v>1.3323700000000001</v>
@@ -3252,16 +3254,16 @@
         <v>24464463</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>115</v>
+        <v>101</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="D53" s="4">
         <v>0.04</v>
       </c>
       <c r="E53" s="4" t="s">
-        <v>116</v>
+        <v>102</v>
       </c>
       <c r="F53" s="4">
         <v>1.33202</v>
@@ -3273,7 +3275,7 @@
         <v>0</v>
       </c>
       <c r="I53" s="5" t="s">
-        <v>118</v>
+        <v>104</v>
       </c>
       <c r="J53" s="4">
         <v>1.33802</v>
@@ -3296,16 +3298,16 @@
         <v>24518336</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>119</v>
+        <v>105</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="D54" s="4">
         <v>0.05</v>
       </c>
       <c r="E54" s="4" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="F54" s="4">
         <v>1524.4</v>
@@ -3317,7 +3319,7 @@
         <v>0</v>
       </c>
       <c r="I54" s="5" t="s">
-        <v>120</v>
+        <v>106</v>
       </c>
       <c r="J54" s="4">
         <v>1538</v>
@@ -3340,16 +3342,16 @@
         <v>24582538</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>121</v>
+        <v>107</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="D55" s="4">
         <v>0.1</v>
       </c>
       <c r="E55" s="4" t="s">
-        <v>116</v>
+        <v>102</v>
       </c>
       <c r="F55" s="4">
         <v>1.3331500000000001</v>
@@ -3361,7 +3363,7 @@
         <v>0</v>
       </c>
       <c r="I55" s="5" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="J55" s="4">
         <v>1.32928</v>
@@ -3384,16 +3386,16 @@
         <v>24652480</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>123</v>
+        <v>109</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="D56" s="4">
         <v>0.05</v>
       </c>
       <c r="E56" s="4" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="F56" s="4">
         <v>1.10362</v>
@@ -3405,7 +3407,7 @@
         <v>0</v>
       </c>
       <c r="I56" s="5" t="s">
-        <v>124</v>
+        <v>110</v>
       </c>
       <c r="J56" s="4">
         <v>1.1030199999999999</v>
@@ -3428,16 +3430,16 @@
         <v>24652485</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>125</v>
+        <v>111</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="D57" s="4">
         <v>0.05</v>
       </c>
       <c r="E57" s="4" t="s">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="F57" s="4">
         <v>0.68147999999999997</v>
@@ -3449,7 +3451,7 @@
         <v>0</v>
       </c>
       <c r="I57" s="5" t="s">
-        <v>126</v>
+        <v>112</v>
       </c>
       <c r="J57" s="4">
         <v>0.68389999999999995</v>
@@ -3472,16 +3474,16 @@
         <v>24652590</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>127</v>
+        <v>113</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="D58" s="4">
         <v>0.05</v>
       </c>
       <c r="E58" s="4" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="F58" s="4">
         <v>1.2315799999999999</v>
@@ -3493,7 +3495,7 @@
         <v>0</v>
       </c>
       <c r="I58" s="5" t="s">
-        <v>128</v>
+        <v>114</v>
       </c>
       <c r="J58" s="4">
         <v>1.2297100000000001</v>
@@ -3516,16 +3518,16 @@
         <v>24660928</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>129</v>
+        <v>115</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="D59" s="4">
         <v>0.04</v>
       </c>
       <c r="E59" s="4" t="s">
-        <v>116</v>
+        <v>102</v>
       </c>
       <c r="F59" s="4">
         <v>1.3229200000000001</v>
@@ -3537,7 +3539,7 @@
         <v>0</v>
       </c>
       <c r="I59" s="5" t="s">
-        <v>130</v>
+        <v>116</v>
       </c>
       <c r="J59" s="4">
         <v>1.3232900000000001</v>
@@ -3560,16 +3562,16 @@
         <v>24660946</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>131</v>
+        <v>117</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="D60" s="4">
         <v>0.04</v>
       </c>
       <c r="E60" s="4" t="s">
-        <v>116</v>
+        <v>102</v>
       </c>
       <c r="F60" s="4">
         <v>1.32294</v>
@@ -3581,7 +3583,7 @@
         <v>0</v>
       </c>
       <c r="I60" s="5" t="s">
-        <v>132</v>
+        <v>118</v>
       </c>
       <c r="J60" s="4">
         <v>1.3232600000000001</v>
@@ -3604,16 +3606,16 @@
         <v>24660956</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>133</v>
+        <v>119</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="D61" s="4">
         <v>0.05</v>
       </c>
       <c r="E61" s="4" t="s">
-        <v>116</v>
+        <v>102</v>
       </c>
       <c r="F61" s="4">
         <v>1.32291</v>
@@ -3625,7 +3627,7 @@
         <v>0</v>
       </c>
       <c r="I61" s="5" t="s">
-        <v>134</v>
+        <v>120</v>
       </c>
       <c r="J61" s="4">
         <v>1.3230999999999999</v>
@@ -3648,16 +3650,16 @@
         <v>24669796</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>135</v>
+        <v>121</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="D62" s="4">
         <v>0.05</v>
       </c>
       <c r="E62" s="4" t="s">
-        <v>116</v>
+        <v>102</v>
       </c>
       <c r="F62" s="4">
         <v>1.3224800000000001</v>
@@ -3669,7 +3671,7 @@
         <v>1.3109999999999999</v>
       </c>
       <c r="I62" s="5" t="s">
-        <v>136</v>
+        <v>122</v>
       </c>
       <c r="J62" s="4">
         <v>1.3187</v>
@@ -3692,16 +3694,16 @@
         <v>24669813</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>137</v>
+        <v>123</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="D63" s="4">
         <v>0.05</v>
       </c>
       <c r="E63" s="4" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="F63" s="4">
         <v>1.1027</v>
@@ -3713,7 +3715,7 @@
         <v>1.0940000000000001</v>
       </c>
       <c r="I63" s="5" t="s">
-        <v>138</v>
+        <v>124</v>
       </c>
       <c r="J63" s="4">
         <v>1.1035999999999999</v>
@@ -3736,16 +3738,16 @@
         <v>24766416</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>139</v>
+        <v>125</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="D64" s="4">
         <v>0.01</v>
       </c>
       <c r="E64" s="4" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="F64" s="4">
         <v>1.10473</v>
@@ -3757,7 +3759,7 @@
         <v>0</v>
       </c>
       <c r="I64" s="5" t="s">
-        <v>140</v>
+        <v>126</v>
       </c>
       <c r="J64" s="4">
         <v>1.1049899999999999</v>
@@ -3780,16 +3782,16 @@
         <v>24766426</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>139</v>
+        <v>125</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="D65" s="4">
         <v>0.04</v>
       </c>
       <c r="E65" s="4" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="F65" s="4">
         <v>1.10473</v>
@@ -3801,7 +3803,7 @@
         <v>0</v>
       </c>
       <c r="I65" s="5" t="s">
-        <v>141</v>
+        <v>127</v>
       </c>
       <c r="J65" s="4">
         <v>1.1012200000000001</v>
@@ -3824,16 +3826,16 @@
         <v>24769913</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>142</v>
+        <v>128</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="D66" s="4">
         <v>0.05</v>
       </c>
       <c r="E66" s="4" t="s">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="F66" s="4">
         <v>107.765</v>
@@ -3845,7 +3847,7 @@
         <v>0</v>
       </c>
       <c r="I66" s="5" t="s">
-        <v>143</v>
+        <v>129</v>
       </c>
       <c r="J66" s="4">
         <v>107.71899999999999</v>
@@ -3868,16 +3870,16 @@
         <v>24778151</v>
       </c>
       <c r="B67" s="5" t="s">
-        <v>144</v>
+        <v>130</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="D67" s="4">
         <v>0.06</v>
       </c>
       <c r="E67" s="4" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="F67" s="4">
         <v>1.10042</v>
@@ -3889,7 +3891,7 @@
         <v>0</v>
       </c>
       <c r="I67" s="5" t="s">
-        <v>145</v>
+        <v>131</v>
       </c>
       <c r="J67" s="4">
         <v>1.09901</v>
@@ -3912,16 +3914,16 @@
         <v>24803133</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>146</v>
+        <v>132</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="D68" s="4">
         <v>0.06</v>
       </c>
       <c r="E68" s="4" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="F68" s="4">
         <v>1.23265</v>
@@ -3933,7 +3935,7 @@
         <v>0</v>
       </c>
       <c r="I68" s="5" t="s">
-        <v>147</v>
+        <v>133</v>
       </c>
       <c r="J68" s="4">
         <v>1.22902</v>
@@ -3956,16 +3958,16 @@
         <v>24868147</v>
       </c>
       <c r="B69" s="5" t="s">
-        <v>148</v>
+        <v>134</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="D69" s="4">
         <v>0.06</v>
       </c>
       <c r="E69" s="4" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="F69" s="4">
         <v>1.1097600000000001</v>
@@ -3977,7 +3979,7 @@
         <v>0</v>
       </c>
       <c r="I69" s="5" t="s">
-        <v>149</v>
+        <v>135</v>
       </c>
       <c r="J69" s="4">
         <v>1.1068899999999999</v>
@@ -4000,16 +4002,16 @@
         <v>24898980</v>
       </c>
       <c r="B70" s="5" t="s">
-        <v>150</v>
+        <v>136</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="D70" s="4">
         <v>0.06</v>
       </c>
       <c r="E70" s="4" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="F70" s="4">
         <v>1504.16</v>
@@ -4021,7 +4023,7 @@
         <v>0</v>
       </c>
       <c r="I70" s="5" t="s">
-        <v>151</v>
+        <v>137</v>
       </c>
       <c r="J70" s="4">
         <v>1503.59</v>
@@ -4044,16 +4046,16 @@
         <v>24898989</v>
       </c>
       <c r="B71" s="5" t="s">
-        <v>152</v>
+        <v>138</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="D71" s="4">
         <v>0.06</v>
       </c>
       <c r="E71" s="4" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="F71" s="4">
         <v>1.2465900000000001</v>
@@ -4065,7 +4067,7 @@
         <v>0</v>
       </c>
       <c r="I71" s="5" t="s">
-        <v>153</v>
+        <v>139</v>
       </c>
       <c r="J71" s="4">
         <v>1.24387</v>
@@ -4088,16 +4090,16 @@
         <v>24899012</v>
       </c>
       <c r="B72" s="5" t="s">
-        <v>154</v>
+        <v>140</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="D72" s="4">
         <v>0.06</v>
       </c>
       <c r="E72" s="4" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="F72" s="4">
         <v>1.10721</v>
@@ -4109,7 +4111,7 @@
         <v>0</v>
       </c>
       <c r="I72" s="5" t="s">
-        <v>155</v>
+        <v>141</v>
       </c>
       <c r="J72" s="4">
         <v>1.1033200000000001</v>
@@ -4132,16 +4134,16 @@
         <v>24910005</v>
       </c>
       <c r="B73" s="5" t="s">
-        <v>156</v>
+        <v>142</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="D73" s="4">
         <v>0.06</v>
       </c>
       <c r="E73" s="4" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="F73" s="4">
         <v>1.24518</v>
@@ -4153,7 +4155,7 @@
         <v>0</v>
       </c>
       <c r="I73" s="5" t="s">
-        <v>157</v>
+        <v>143</v>
       </c>
       <c r="J73" s="4">
         <v>1.2421800000000001</v>
@@ -4176,16 +4178,16 @@
         <v>24940198</v>
       </c>
       <c r="B74" s="5" t="s">
-        <v>158</v>
+        <v>144</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="D74" s="4">
         <v>0.06</v>
       </c>
       <c r="E74" s="4" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="F74" s="4">
         <v>1.10216</v>
@@ -4197,7 +4199,7 @@
         <v>0</v>
       </c>
       <c r="I74" s="5" t="s">
-        <v>159</v>
+        <v>145</v>
       </c>
       <c r="J74" s="4">
         <v>1.1035200000000001</v>
@@ -4220,16 +4222,16 @@
         <v>24955804</v>
       </c>
       <c r="B75" s="5" t="s">
-        <v>160</v>
+        <v>146</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="D75" s="4">
         <v>0.06</v>
       </c>
       <c r="E75" s="4" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="F75" s="4">
         <v>1.10538</v>
@@ -4241,7 +4243,7 @@
         <v>0</v>
       </c>
       <c r="I75" s="5" t="s">
-        <v>161</v>
+        <v>147</v>
       </c>
       <c r="J75" s="4">
         <v>1.10311</v>
@@ -4264,16 +4266,16 @@
         <v>25013774</v>
       </c>
       <c r="B76" s="5" t="s">
-        <v>162</v>
+        <v>148</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="D76" s="4">
         <v>0.06</v>
       </c>
       <c r="E76" s="4" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="F76" s="4">
         <v>1.24725</v>
@@ -4285,7 +4287,7 @@
         <v>1.23</v>
       </c>
       <c r="I76" s="5" t="s">
-        <v>163</v>
+        <v>149</v>
       </c>
       <c r="J76" s="4">
         <v>1.24699</v>
@@ -4308,16 +4310,16 @@
         <v>25115634</v>
       </c>
       <c r="B77" s="5" t="s">
-        <v>164</v>
+        <v>150</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="D77" s="4">
         <v>0.08</v>
       </c>
       <c r="E77" s="4" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="F77" s="4">
         <v>1522.78</v>
@@ -4329,7 +4331,7 @@
         <v>0</v>
       </c>
       <c r="I77" s="5" t="s">
-        <v>165</v>
+        <v>151</v>
       </c>
       <c r="J77" s="4">
         <v>1523.39</v>
@@ -4352,16 +4354,16 @@
         <v>25115653</v>
       </c>
       <c r="B78" s="5" t="s">
-        <v>166</v>
+        <v>152</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="D78" s="4">
         <v>0.04</v>
       </c>
       <c r="E78" s="4" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="F78" s="4">
         <v>1522.8</v>
@@ -4373,7 +4375,7 @@
         <v>0</v>
       </c>
       <c r="I78" s="5" t="s">
-        <v>167</v>
+        <v>153</v>
       </c>
       <c r="J78" s="4">
         <v>1523.59</v>
@@ -4396,16 +4398,16 @@
         <v>25115668</v>
       </c>
       <c r="B79" s="5" t="s">
-        <v>166</v>
+        <v>152</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="D79" s="4">
         <v>0.03</v>
       </c>
       <c r="E79" s="4" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="F79" s="4">
         <v>1522.8</v>
@@ -4417,7 +4419,7 @@
         <v>1508</v>
       </c>
       <c r="I79" s="5" t="s">
-        <v>168</v>
+        <v>154</v>
       </c>
       <c r="J79" s="4">
         <v>1522.35</v>
@@ -4440,16 +4442,16 @@
         <v>25115680</v>
       </c>
       <c r="B80" s="5" t="s">
-        <v>169</v>
+        <v>155</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="D80" s="4">
         <v>0.02</v>
       </c>
       <c r="E80" s="4" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="F80" s="4">
         <v>1522.75</v>
@@ -4461,7 +4463,7 @@
         <v>1508</v>
       </c>
       <c r="I80" s="5" t="s">
-        <v>168</v>
+        <v>154</v>
       </c>
       <c r="J80" s="4">
         <v>1522.31</v>
@@ -4484,16 +4486,16 @@
         <v>25148355</v>
       </c>
       <c r="B81" s="5" t="s">
-        <v>170</v>
+        <v>156</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="D81" s="4">
         <v>0.06</v>
       </c>
       <c r="E81" s="4" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="F81" s="4">
         <v>1532.02</v>
@@ -4505,7 +4507,7 @@
         <v>0</v>
       </c>
       <c r="I81" s="5" t="s">
-        <v>171</v>
+        <v>157</v>
       </c>
       <c r="J81" s="4">
         <v>1525.66</v>
@@ -4528,16 +4530,16 @@
         <v>25148480</v>
       </c>
       <c r="B82" s="5" t="s">
-        <v>172</v>
+        <v>158</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="D82" s="4">
         <v>0.02</v>
       </c>
       <c r="E82" s="4" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="F82" s="4">
         <v>1531.5</v>
@@ -4549,7 +4551,7 @@
         <v>0</v>
       </c>
       <c r="I82" s="5" t="s">
-        <v>173</v>
+        <v>159</v>
       </c>
       <c r="J82" s="4">
         <v>1525.63</v>
@@ -4572,16 +4574,16 @@
         <v>25148522</v>
       </c>
       <c r="B83" s="5" t="s">
-        <v>174</v>
+        <v>160</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="D83" s="4">
         <v>0.01</v>
       </c>
       <c r="E83" s="4" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="F83" s="4">
         <v>1531.86</v>
@@ -4593,7 +4595,7 @@
         <v>0</v>
       </c>
       <c r="I83" s="5" t="s">
-        <v>175</v>
+        <v>161</v>
       </c>
       <c r="J83" s="4">
         <v>1525.66</v>
@@ -4616,16 +4618,16 @@
         <v>25159294</v>
       </c>
       <c r="B84" s="5" t="s">
-        <v>176</v>
+        <v>162</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="D84" s="4">
         <v>0.06</v>
       </c>
       <c r="E84" s="4" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="F84" s="4">
         <v>1531.06</v>
@@ -4637,7 +4639,7 @@
         <v>0</v>
       </c>
       <c r="I84" s="5" t="s">
-        <v>177</v>
+        <v>163</v>
       </c>
       <c r="J84" s="4">
         <v>1527.4</v>
@@ -4660,16 +4662,16 @@
         <v>25159303</v>
       </c>
       <c r="B85" s="5" t="s">
-        <v>178</v>
+        <v>164</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="D85" s="4">
         <v>0.01</v>
       </c>
       <c r="E85" s="4" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="F85" s="4">
         <v>1531.28</v>
@@ -4681,7 +4683,7 @@
         <v>0</v>
       </c>
       <c r="I85" s="5" t="s">
-        <v>179</v>
+        <v>165</v>
       </c>
       <c r="J85" s="4">
         <v>1527.36</v>
